--- a/Empirical Application/Estimates/emp_app_nn_c3_L5_hstar.xlsx
+++ b/Empirical Application/Estimates/emp_app_nn_c3_L5_hstar.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>40.09198934342076</v>
+        <v>39.65466355508217</v>
       </c>
       <c r="D2">
-        <v>1.694564047113674</v>
+        <v>1.790891867776577</v>
       </c>
       <c r="E2">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F2">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="H2">
-        <v>0.009462731037717113</v>
+        <v>0.01112161052863631</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>41.93317505082886</v>
+        <v>40.95502731817388</v>
       </c>
       <c r="D3">
-        <v>1.595951814952843</v>
+        <v>1.728095949760898</v>
       </c>
       <c r="E3">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F3">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="H3">
-        <v>0.008912063725049725</v>
+        <v>0.01073164184569979</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>43.1621217669537</v>
+        <v>42.17158380997709</v>
       </c>
       <c r="D4">
-        <v>1.544295852097493</v>
+        <v>1.650208496325281</v>
       </c>
       <c r="E4">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F4">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="H4">
-        <v>0.008623608128563384</v>
+        <v>0.01024795327814062</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>44.20995461461826</v>
+        <v>43.69072196704061</v>
       </c>
       <c r="D5">
-        <v>1.480867202519976</v>
+        <v>1.579402542459048</v>
       </c>
       <c r="E5">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F5">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="H5">
-        <v>0.008269411866663471</v>
+        <v>0.009808241503143002</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>45.52185874792917</v>
+        <v>45.31983969457669</v>
       </c>
       <c r="D6">
-        <v>1.426973250557353</v>
+        <v>1.51197030619535</v>
       </c>
       <c r="E6">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F6">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G6">
-        <v>0.0339366837781776</v>
+        <v>0.03540735087184075</v>
       </c>
       <c r="H6">
-        <v>0.007968458962079783</v>
+        <v>0.009389480838530169</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>46.78774993516016</v>
+        <v>46.72341244515982</v>
       </c>
       <c r="D7">
-        <v>1.384963723176759</v>
+        <v>1.479346491064197</v>
       </c>
       <c r="E7">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F7">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G7">
-        <v>0.03034109302707062</v>
+        <v>0.03605240704366212</v>
       </c>
       <c r="H7">
-        <v>0.007733870685938039</v>
+        <v>0.009186883812782671</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>47.55707519666399</v>
+        <v>47.55461022108492</v>
       </c>
       <c r="D8">
-        <v>1.352863279794863</v>
+        <v>1.459480649442023</v>
       </c>
       <c r="E8">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F8">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G8">
-        <v>0.02746845893568928</v>
+        <v>0.03364391506942392</v>
       </c>
       <c r="H8">
-        <v>0.007554616403733873</v>
+        <v>0.009063515028033153</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>48.02984289950442</v>
+        <v>48.13050160224199</v>
       </c>
       <c r="D9">
-        <v>1.331920093990498</v>
+        <v>1.447574503175371</v>
       </c>
       <c r="E9">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F9">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G9">
-        <v>0.02387430178053851</v>
+        <v>0.02774862272000864</v>
       </c>
       <c r="H9">
-        <v>0.007437666126948999</v>
+        <v>0.008989576716034967</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>48.1071251238948</v>
+        <v>48.40259770319746</v>
       </c>
       <c r="D10">
-        <v>1.321075831200534</v>
+        <v>1.442673770489216</v>
       </c>
       <c r="E10">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F10">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G10">
-        <v>0.01615791484978515</v>
+        <v>0.01926723755387978</v>
       </c>
       <c r="H10">
-        <v>0.007377109937138093</v>
+        <v>0.008959142695298673</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>47.90724370594557</v>
+        <v>48.40532868948841</v>
       </c>
       <c r="D11">
-        <v>1.29252511037248</v>
+        <v>1.43526359277391</v>
       </c>
       <c r="E11">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F11">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G11">
-        <v>0.006996836067408818</v>
+        <v>0.01051197652705365</v>
       </c>
       <c r="H11">
-        <v>0.007217677903519183</v>
+        <v>0.008913124779878724</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>47.77976811850014</v>
+        <v>48.34815486581009</v>
       </c>
       <c r="D12">
-        <v>1.283493847149207</v>
+        <v>1.428213360980279</v>
       </c>
       <c r="E12">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F12">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G12">
-        <v>0.001391830761475932</v>
+        <v>0.00495965402953229</v>
       </c>
       <c r="H12">
-        <v>0.007167245808634234</v>
+        <v>0.008869342163208116</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>47.6157932686209</v>
+        <v>48.11322092692194</v>
       </c>
       <c r="D13">
-        <v>1.273150645706622</v>
+        <v>1.419146260353758</v>
       </c>
       <c r="E13">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F13">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G13">
-        <v>-0.002587810193022033</v>
+        <v>-0.000108004220750324</v>
       </c>
       <c r="H13">
-        <v>0.007109487629775891</v>
+        <v>0.008813034597348588</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>47.18194367627379</v>
+        <v>47.54884487711399</v>
       </c>
       <c r="D14">
-        <v>1.271481703049224</v>
+        <v>1.415416664844538</v>
       </c>
       <c r="E14">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F14">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G14">
-        <v>-0.005782384047631295</v>
+        <v>-0.005335955163021655</v>
       </c>
       <c r="H14">
-        <v>0.007100167972893504</v>
+        <v>0.008789873450978321</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>46.8721807772432</v>
+        <v>47.27745189392904</v>
       </c>
       <c r="D15">
-        <v>1.286927336788585</v>
+        <v>1.425245035166249</v>
       </c>
       <c r="E15">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F15">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G15">
-        <v>-0.00646914330438979</v>
+        <v>-0.00704922997224604</v>
       </c>
       <c r="H15">
-        <v>0.007186418993049165</v>
+        <v>0.008850908574771129</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>46.68240336471359</v>
+        <v>46.98657973915384</v>
       </c>
       <c r="D16">
-        <v>1.302877570728156</v>
+        <v>1.437109559489138</v>
       </c>
       <c r="E16">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F16">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G16">
-        <v>-0.006858529711165895</v>
+        <v>-0.008509844541601553</v>
       </c>
       <c r="H16">
-        <v>0.007275487785707612</v>
+        <v>0.008924588410500423</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>46.43174493177111</v>
+        <v>46.64462909970246</v>
       </c>
       <c r="D17">
-        <v>1.304240555925813</v>
+        <v>1.459422702177125</v>
       </c>
       <c r="E17">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F17">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G17">
-        <v>-0.007400302105311196</v>
+        <v>-0.009178698920121731</v>
       </c>
       <c r="H17">
-        <v>0.007283098924605423</v>
+        <v>0.00906315516995183</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>46.49643631521685</v>
+        <v>46.83105367518765</v>
       </c>
       <c r="D18">
-        <v>1.332864084456921</v>
+        <v>1.488667753273244</v>
       </c>
       <c r="E18">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F18">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G18">
-        <v>-0.004284421006605888</v>
+        <v>-0.004486195012039662</v>
       </c>
       <c r="H18">
-        <v>0.007442937528700467</v>
+        <v>0.009244769746483973</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>46.75541994401124</v>
+        <v>46.96531874745249</v>
       </c>
       <c r="D19">
-        <v>1.361391751780326</v>
+        <v>1.51602326851744</v>
       </c>
       <c r="E19">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F19">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G19">
-        <v>-0.0007297552076997782</v>
+        <v>-0.001950832165478422</v>
       </c>
       <c r="H19">
-        <v>0.007602240827666743</v>
+        <v>0.009414650123870376</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>47.0800914775564</v>
+        <v>47.31105145933981</v>
       </c>
       <c r="D20">
-        <v>1.389762002624661</v>
+        <v>1.544090100243042</v>
       </c>
       <c r="E20">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F20">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G20">
-        <v>0.002485550705267547</v>
+        <v>0.002027948251162304</v>
       </c>
       <c r="H20">
-        <v>0.007760665086501795</v>
+        <v>0.009588947844934047</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>47.51098298726243</v>
+        <v>48.18832221976207</v>
       </c>
       <c r="D21">
-        <v>1.414210852808296</v>
+        <v>1.576262935682373</v>
       </c>
       <c r="E21">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F21">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G21">
-        <v>0.006745237846820773</v>
+        <v>0.009648082000372548</v>
       </c>
       <c r="H21">
-        <v>0.007897191583604832</v>
+        <v>0.009788744243475058</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>48.11914589989803</v>
+        <v>48.80343103322331</v>
       </c>
       <c r="D22">
-        <v>1.430812083614673</v>
+        <v>1.59173190067666</v>
       </c>
       <c r="E22">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F22">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G22">
-        <v>0.01014193490425739</v>
+        <v>0.01232735848772291</v>
       </c>
       <c r="H22">
-        <v>0.007989895652408478</v>
+        <v>0.009884808002009603</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>48.43949207939207</v>
+        <v>49.29202595162801</v>
       </c>
       <c r="D23">
-        <v>1.43881466861203</v>
+        <v>1.610643971689956</v>
       </c>
       <c r="E23">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F23">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G23">
-        <v>0.01052545084613019</v>
+        <v>0.014541920026097</v>
       </c>
       <c r="H23">
-        <v>0.00803458343482983</v>
+        <v>0.01000225377966056</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>48.78916358361503</v>
+        <v>50.02930039656722</v>
       </c>
       <c r="D24">
-        <v>1.449116695182101</v>
+        <v>1.624845855739569</v>
       </c>
       <c r="E24">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F24">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G24">
-        <v>0.01068170066286642</v>
+        <v>0.01698905585767134</v>
       </c>
       <c r="H24">
-        <v>0.008092111686265379</v>
+        <v>0.01009044884381524</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>48.82028671652673</v>
+        <v>50.11961886155299</v>
       </c>
       <c r="D25">
-        <v>1.459554063644983</v>
+        <v>1.635619688673137</v>
       </c>
       <c r="E25">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F25">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G25">
-        <v>0.008183148307901877</v>
+        <v>0.01207060401119326</v>
       </c>
       <c r="H25">
-        <v>0.008150395709624678</v>
+        <v>0.01015735538124706</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>48.69493494500335</v>
+        <v>49.62205533041436</v>
       </c>
       <c r="D26">
-        <v>1.459985113230434</v>
+        <v>1.62885974101063</v>
       </c>
       <c r="E26">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F26">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G26">
-        <v>0.003598681531908232</v>
+        <v>0.005116401857444064</v>
       </c>
       <c r="H26">
-        <v>0.008152802763107248</v>
+        <v>0.01011537545691488</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>48.58581930628103</v>
+        <v>49.38257890942875</v>
       </c>
       <c r="D27">
-        <v>1.46931777057918</v>
+        <v>1.660525726730958</v>
       </c>
       <c r="E27">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F27">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G27">
-        <v>0.0009145451680560246</v>
+        <v>0.0005659559862546182</v>
       </c>
       <c r="H27">
-        <v>0.008204917893549664</v>
+        <v>0.01031202427001385</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>48.22766744092744</v>
+        <v>49.2246720056127</v>
       </c>
       <c r="D28">
-        <v>1.489832292102989</v>
+        <v>1.670592560343986</v>
       </c>
       <c r="E28">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F28">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G28">
-        <v>-0.003509350891797425</v>
+        <v>-0.005028927443465748</v>
       </c>
       <c r="H28">
-        <v>0.008319474436796235</v>
+        <v>0.01037454027375207</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>47.84787334666922</v>
+        <v>48.7561474031772</v>
       </c>
       <c r="D29">
-        <v>1.486804929114416</v>
+        <v>1.673996914655909</v>
       </c>
       <c r="E29">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F29">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G29">
-        <v>-0.006077583561609456</v>
+        <v>-0.008521696614848695</v>
       </c>
       <c r="H29">
-        <v>0.008302569131999289</v>
+        <v>0.01039568164104506</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>47.29743415216251</v>
+        <v>48.1490237214457</v>
       </c>
       <c r="D30">
-        <v>1.482337611558335</v>
+        <v>1.679845834549687</v>
       </c>
       <c r="E30">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F30">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G30">
-        <v>-0.008734379955255233</v>
+        <v>-0.009206447556054131</v>
       </c>
       <c r="H30">
-        <v>0.008277622878380094</v>
+        <v>0.0104320039954218</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>46.88060924538775</v>
+        <v>47.90579787617255</v>
       </c>
       <c r="D31">
-        <v>1.518111756654396</v>
+        <v>1.69694736879637</v>
       </c>
       <c r="E31">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F31">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G31">
-        <v>-0.01065756288058299</v>
+        <v>-0.009229881457851263</v>
       </c>
       <c r="H31">
-        <v>0.00847739172968134</v>
+        <v>0.01053820616583529</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>46.38452845176798</v>
+        <v>47.24514476407732</v>
       </c>
       <c r="D32">
-        <v>1.533211143273824</v>
+        <v>1.708325449418353</v>
       </c>
       <c r="E32">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F32">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G32">
-        <v>-0.01151961868224665</v>
+        <v>-0.01237204525959617</v>
       </c>
       <c r="H32">
-        <v>0.008561709247604325</v>
+        <v>0.01060886513945508</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>45.53319677322861</v>
+        <v>46.68241058903243</v>
       </c>
       <c r="D33">
-        <v>1.543540561128826</v>
+        <v>1.722579873336765</v>
       </c>
       <c r="E33">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F33">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G33">
-        <v>-0.0144667285840038</v>
+        <v>-0.01296085508840483</v>
       </c>
       <c r="H33">
-        <v>0.008619390456588171</v>
+        <v>0.01069738648124188</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>44.68880975931053</v>
+        <v>45.90341635128583</v>
       </c>
       <c r="D34">
-        <v>1.542712275681849</v>
+        <v>1.731545165117889</v>
       </c>
       <c r="E34">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F34">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G34">
-        <v>-0.01630390245532487</v>
+        <v>-0.01403504606349921</v>
       </c>
       <c r="H34">
-        <v>0.00861476517115234</v>
+        <v>0.01075306180439192</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>44.57093302995975</v>
+        <v>45.3054854351583</v>
       </c>
       <c r="D35">
-        <v>1.590580427034912</v>
+        <v>1.73122755048815</v>
       </c>
       <c r="E35">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F35">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G35">
-        <v>-0.01443547634642504</v>
+        <v>-0.01625195275633904</v>
       </c>
       <c r="H35">
-        <v>0.008882068990266345</v>
+        <v>0.01075108938703177</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>44.00994369250144</v>
+        <v>44.93194868740682</v>
       </c>
       <c r="D36">
-        <v>1.571841166349576</v>
+        <v>1.734992675311537</v>
       </c>
       <c r="E36">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F36">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G36">
-        <v>-0.01484115474541587</v>
+        <v>-0.01445747547919058</v>
       </c>
       <c r="H36">
-        <v>0.008777425802531403</v>
+        <v>0.0107744711738559</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>43.90360506069876</v>
+        <v>44.81906428584102</v>
       </c>
       <c r="D37">
-        <v>1.64487448499814</v>
+        <v>1.742081185478982</v>
       </c>
       <c r="E37">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F37">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G37">
-        <v>-0.01018494820331157</v>
+        <v>-0.01164591439494629</v>
       </c>
       <c r="H37">
-        <v>0.0091852561541433</v>
+        <v>0.01081849150290484</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>43.28980116461188</v>
+        <v>44.3394063624523</v>
       </c>
       <c r="D38">
-        <v>1.603367589877111</v>
+        <v>1.77220616509397</v>
       </c>
       <c r="E38">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F38">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G38">
-        <v>-0.008743803716866561</v>
+        <v>-0.009775062430209536</v>
       </c>
       <c r="H38">
-        <v>0.008953474661192338</v>
+        <v>0.01100557052006346</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>43.23207253343039</v>
+        <v>43.67201517600651</v>
       </c>
       <c r="D39">
-        <v>1.624607436599945</v>
+        <v>1.796728583755011</v>
       </c>
       <c r="E39">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F39">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G39">
-        <v>-0.008367878103308479</v>
+        <v>-0.0102091891196987</v>
       </c>
       <c r="H39">
-        <v>0.009072081542509604</v>
+        <v>0.01115785709552648</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>42.58472899512521</v>
+        <v>43.56141129774953</v>
       </c>
       <c r="D40">
-        <v>1.687433046694637</v>
+        <v>1.818687942900184</v>
       </c>
       <c r="E40">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F40">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G40">
-        <v>-0.008907591858601415</v>
+        <v>-0.008565858685358085</v>
       </c>
       <c r="H40">
-        <v>0.009422910330373457</v>
+        <v>0.01129422682519322</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>42.12465736415693</v>
+        <v>43.463205603917</v>
       </c>
       <c r="D41">
-        <v>1.741532812009326</v>
+        <v>1.846331590450925</v>
       </c>
       <c r="E41">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F41">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G41">
-        <v>-0.01111842310338642</v>
+        <v>-0.008474116762025164</v>
       </c>
       <c r="H41">
-        <v>0.009725012531378184</v>
+        <v>0.01146589653188072</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>42.60216204800352</v>
+        <v>43.84615813393368</v>
       </c>
       <c r="D42">
-        <v>1.748057369907422</v>
+        <v>1.887161485663627</v>
       </c>
       <c r="E42">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F42">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G42">
-        <v>-0.004297744478802245</v>
+        <v>-0.003082801428241399</v>
       </c>
       <c r="H42">
-        <v>0.009761446761547801</v>
+        <v>0.01171945410319544</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>42.59626511687803</v>
+        <v>44.15196857644722</v>
       </c>
       <c r="D43">
-        <v>1.754658915719406</v>
+        <v>1.922471609736525</v>
       </c>
       <c r="E43">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F43">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G43">
-        <v>-0.003973796353452253</v>
+        <v>0.002999708752754415</v>
       </c>
       <c r="H43">
-        <v>0.009798310905194878</v>
+        <v>0.01193873336551301</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>42.86973850410467</v>
+        <v>43.84653454641218</v>
       </c>
       <c r="D44">
-        <v>1.802456751150196</v>
+        <v>1.936486139141607</v>
       </c>
       <c r="E44">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F44">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G44">
-        <v>0.001781309431121603</v>
+        <v>0.001782020304141563</v>
       </c>
       <c r="H44">
-        <v>0.0100652220683563</v>
+        <v>0.01202576493932822</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,22 +1541,22 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>43.14489231795609</v>
+        <v>44.40241838734217</v>
       </c>
       <c r="D45">
-        <v>1.804944252486706</v>
+        <v>1.978454109115916</v>
       </c>
       <c r="E45">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F45">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G45">
-        <v>0.006376468461244756</v>
+        <v>0.005870079896407354</v>
       </c>
       <c r="H45">
-        <v>0.01007911269476458</v>
+        <v>0.01228639006423386</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1567,22 +1567,22 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>43.02823405558265</v>
+        <v>44.45343376258026</v>
       </c>
       <c r="D46">
-        <v>1.81378428156238</v>
+        <v>1.961068328582442</v>
       </c>
       <c r="E46">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F46">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G46">
-        <v>0.002662950047369561</v>
+        <v>0.003795472679041145</v>
       </c>
       <c r="H46">
-        <v>0.01012847690596166</v>
+        <v>0.01217842269707522</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1593,22 +1593,22 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>43.34844029784195</v>
+        <v>44.1617209467971</v>
       </c>
       <c r="D47">
-        <v>1.811809553006426</v>
+        <v>1.946164782999906</v>
       </c>
       <c r="E47">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F47">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G47">
-        <v>0.004701094881024481</v>
+        <v>6.095231468674634E-05</v>
       </c>
       <c r="H47">
-        <v>0.01011744968912124</v>
+        <v>0.01208587024740079</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1619,22 +1619,22 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>43.12576278363528</v>
+        <v>44.05219787883846</v>
       </c>
       <c r="D48">
-        <v>1.797204057060757</v>
+        <v>1.93640224680396</v>
       </c>
       <c r="E48">
-        <v>194.76821024808</v>
+        <v>170.5797356724117</v>
       </c>
       <c r="F48">
-        <v>283.1466945722718</v>
+        <v>254.6077895222565</v>
       </c>
       <c r="G48">
-        <v>0.001600151747066336</v>
+        <v>0.001285395827664271</v>
       </c>
       <c r="H48">
-        <v>0.01003589013990164</v>
+        <v>0.01202524395985289</v>
       </c>
     </row>
   </sheetData>

--- a/Empirical Application/Estimates/emp_app_nn_c3_L5_hstar.xlsx
+++ b/Empirical Application/Estimates/emp_app_nn_c3_L5_hstar.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>39.65466355508217</v>
+        <v>39.26026429820912</v>
       </c>
       <c r="D2">
-        <v>1.790891867776577</v>
+        <v>1.897056626037603</v>
       </c>
       <c r="E2">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F2">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="H2">
-        <v>0.01112161052863631</v>
+        <v>0.01436098812168607</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>40.95502731817388</v>
+        <v>40.65219013591752</v>
       </c>
       <c r="D3">
-        <v>1.728095949760898</v>
+        <v>1.795231312319356</v>
       </c>
       <c r="E3">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F3">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="H3">
-        <v>0.01073164184569979</v>
+        <v>0.01359015603332134</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>42.17158380997709</v>
+        <v>42.56417690654811</v>
       </c>
       <c r="D4">
-        <v>1.650208496325281</v>
+        <v>1.68263232471897</v>
       </c>
       <c r="E4">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F4">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="H4">
-        <v>0.01024795327814062</v>
+        <v>0.01273776570334974</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>43.69072196704061</v>
+        <v>44.37384686468863</v>
       </c>
       <c r="D5">
-        <v>1.579402542459048</v>
+        <v>1.604073356018124</v>
       </c>
       <c r="E5">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F5">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="H5">
-        <v>0.009808241503143002</v>
+        <v>0.01214306315157552</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>45.31983969457669</v>
+        <v>45.49076193238572</v>
       </c>
       <c r="D6">
-        <v>1.51197030619535</v>
+        <v>1.550937950390958</v>
       </c>
       <c r="E6">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F6">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G6">
-        <v>0.03540735087184075</v>
+        <v>0.03894061021360375</v>
       </c>
       <c r="H6">
-        <v>0.009389480838530169</v>
+        <v>0.01174082058349438</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>46.72341244515982</v>
+        <v>46.62916970724385</v>
       </c>
       <c r="D7">
-        <v>1.479346491064197</v>
+        <v>1.53266057902608</v>
       </c>
       <c r="E7">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F7">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G7">
-        <v>0.03605240704366212</v>
+        <v>0.03735612232078953</v>
       </c>
       <c r="H7">
-        <v>0.009186883812782671</v>
+        <v>0.01160245828609954</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>47.55461022108492</v>
+        <v>47.68854622099512</v>
       </c>
       <c r="D8">
-        <v>1.459480649442023</v>
+        <v>1.540101247998783</v>
       </c>
       <c r="E8">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F8">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G8">
-        <v>0.03364391506942392</v>
+        <v>0.0320273082152938</v>
       </c>
       <c r="H8">
-        <v>0.009063515028033153</v>
+        <v>0.0116587852071138</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>48.13050160224199</v>
+        <v>48.31644385866261</v>
       </c>
       <c r="D9">
-        <v>1.447574503175371</v>
+        <v>1.552039174993269</v>
       </c>
       <c r="E9">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F9">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G9">
-        <v>0.02774862272000864</v>
+        <v>0.02464123121233737</v>
       </c>
       <c r="H9">
-        <v>0.008989576716034967</v>
+        <v>0.01174915701015452</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>48.40259770319746</v>
+        <v>48.7102655445722</v>
       </c>
       <c r="D10">
-        <v>1.442673770489216</v>
+        <v>1.565366202860867</v>
       </c>
       <c r="E10">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F10">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G10">
-        <v>0.01926723755387978</v>
+        <v>0.02012189757616549</v>
       </c>
       <c r="H10">
-        <v>0.008959142695298673</v>
+        <v>0.011850044504116</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>48.40532868948841</v>
+        <v>48.81913549790182</v>
       </c>
       <c r="D11">
-        <v>1.43526359277391</v>
+        <v>1.556550132412123</v>
       </c>
       <c r="E11">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F11">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G11">
-        <v>0.01051197652705365</v>
+        <v>0.01368728619161232</v>
       </c>
       <c r="H11">
-        <v>0.008913124779878724</v>
+        <v>0.01178330559856271</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>48.34815486581009</v>
+        <v>48.7948158377574</v>
       </c>
       <c r="D12">
-        <v>1.428213360980279</v>
+        <v>1.550906173320885</v>
       </c>
       <c r="E12">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F12">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G12">
-        <v>0.00495965402953229</v>
+        <v>0.006914185104764226</v>
       </c>
       <c r="H12">
-        <v>0.008869342163208116</v>
+        <v>0.01174058002656023</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>48.11322092692194</v>
+        <v>48.34230761894327</v>
       </c>
       <c r="D13">
-        <v>1.419146260353758</v>
+        <v>1.556586055178834</v>
       </c>
       <c r="E13">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F13">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G13">
-        <v>-0.000108004220750324</v>
+        <v>0.0001616485017541525</v>
       </c>
       <c r="H13">
-        <v>0.008813034597348588</v>
+        <v>0.01178357753900927</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>47.54884487711399</v>
+        <v>47.61316949512904</v>
       </c>
       <c r="D14">
-        <v>1.415416664844538</v>
+        <v>1.563053728823355</v>
       </c>
       <c r="E14">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F14">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G14">
-        <v>-0.005335955163021655</v>
+        <v>-0.006856850309019747</v>
       </c>
       <c r="H14">
-        <v>0.008789873450978321</v>
+        <v>0.01183253874718254</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>47.27745189392904</v>
+        <v>46.99934980318007</v>
       </c>
       <c r="D15">
-        <v>1.425245035166249</v>
+        <v>1.562684975420918</v>
       </c>
       <c r="E15">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F15">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G15">
-        <v>-0.00704922997224604</v>
+        <v>-0.01137366059201095</v>
       </c>
       <c r="H15">
-        <v>0.008850908574771129</v>
+        <v>0.01182974723154746</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>46.98657973915384</v>
+        <v>46.43638962781766</v>
       </c>
       <c r="D16">
-        <v>1.437109559489138</v>
+        <v>1.58279773179452</v>
       </c>
       <c r="E16">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F16">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G16">
-        <v>-0.008509844541601553</v>
+        <v>-0.01474016381212335</v>
       </c>
       <c r="H16">
-        <v>0.008924588410500423</v>
+        <v>0.01198200365416093</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>46.64462909970246</v>
+        <v>46.15129111831004</v>
       </c>
       <c r="D17">
-        <v>1.459422702177125</v>
+        <v>1.619274793708945</v>
       </c>
       <c r="E17">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F17">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G17">
-        <v>-0.009178698920121731</v>
+        <v>-0.0136938531289577</v>
       </c>
       <c r="H17">
-        <v>0.00906315516995183</v>
+        <v>0.01225814019414457</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>46.83105367518765</v>
+        <v>46.00686157502194</v>
       </c>
       <c r="D18">
-        <v>1.488667753273244</v>
+        <v>1.655124648061904</v>
       </c>
       <c r="E18">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F18">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G18">
-        <v>-0.004486195012039662</v>
+        <v>-0.01003942450066941</v>
       </c>
       <c r="H18">
-        <v>0.009244769746483973</v>
+        <v>0.01252952868379781</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>46.96531874745249</v>
+        <v>46.68956500212389</v>
       </c>
       <c r="D19">
-        <v>1.51602326851744</v>
+        <v>1.685220772710303</v>
       </c>
       <c r="E19">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F19">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G19">
-        <v>-0.001950832165478422</v>
+        <v>-0.001936155006601092</v>
       </c>
       <c r="H19">
-        <v>0.009414650123870376</v>
+        <v>0.01275736062231364</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>47.31105145933981</v>
+        <v>47.52967376096399</v>
       </c>
       <c r="D20">
-        <v>1.544090100243042</v>
+        <v>1.712326462790973</v>
       </c>
       <c r="E20">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F20">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G20">
-        <v>0.002027948251162304</v>
+        <v>0.006833025832164541</v>
       </c>
       <c r="H20">
-        <v>0.009588947844934047</v>
+        <v>0.01296255454638308</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>48.18832221976207</v>
+        <v>48.23660661348812</v>
       </c>
       <c r="D21">
-        <v>1.576262935682373</v>
+        <v>1.745984162698601</v>
       </c>
       <c r="E21">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F21">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G21">
-        <v>0.009648082000372548</v>
+        <v>0.013033221844863</v>
       </c>
       <c r="H21">
-        <v>0.009788744243475058</v>
+        <v>0.01321734811550617</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>48.80343103322331</v>
+        <v>48.96797224136199</v>
       </c>
       <c r="D22">
-        <v>1.59173190067666</v>
+        <v>1.762217158825481</v>
       </c>
       <c r="E22">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F22">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G22">
-        <v>0.01232735848772291</v>
+        <v>0.01850694166462534</v>
       </c>
       <c r="H22">
-        <v>0.009884808002009603</v>
+        <v>0.01334023420196128</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>49.29202595162801</v>
+        <v>49.68911486112686</v>
       </c>
       <c r="D23">
-        <v>1.610643971689956</v>
+        <v>1.783931220158768</v>
       </c>
       <c r="E23">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F23">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G23">
-        <v>0.014541920026097</v>
+        <v>0.01874718661876855</v>
       </c>
       <c r="H23">
-        <v>0.01000225377966056</v>
+        <v>0.01350461273057286</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>50.02930039656722</v>
+        <v>50.24812447114324</v>
       </c>
       <c r="D24">
-        <v>1.624845855739569</v>
+        <v>1.800686881310405</v>
       </c>
       <c r="E24">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F24">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G24">
-        <v>0.01698905585767134</v>
+        <v>0.01699031693862034</v>
       </c>
       <c r="H24">
-        <v>0.01009044884381524</v>
+        <v>0.013631455465506</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>50.11961886155299</v>
+        <v>50.40072017194461</v>
       </c>
       <c r="D25">
-        <v>1.635619688673137</v>
+        <v>1.818507044729792</v>
       </c>
       <c r="E25">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F25">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G25">
-        <v>0.01207060401119326</v>
+        <v>0.01352570974035308</v>
       </c>
       <c r="H25">
-        <v>0.01015735538124706</v>
+        <v>0.01376635663381053</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>49.62205533041436</v>
+        <v>50.18914897128514</v>
       </c>
       <c r="D26">
-        <v>1.62885974101063</v>
+        <v>1.829722863197436</v>
       </c>
       <c r="E26">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F26">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G26">
-        <v>0.005116401857444064</v>
+        <v>0.007632354562019694</v>
       </c>
       <c r="H26">
-        <v>0.01011537545691488</v>
+        <v>0.01385126197273299</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>49.38257890942875</v>
+        <v>49.662211718385</v>
       </c>
       <c r="D27">
-        <v>1.660525726730958</v>
+        <v>1.831171898972312</v>
       </c>
       <c r="E27">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F27">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G27">
-        <v>0.0005659559862546182</v>
+        <v>-0.000168144642136614</v>
       </c>
       <c r="H27">
-        <v>0.01031202427001385</v>
+        <v>0.0138622313793734</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>49.2246720056127</v>
+        <v>49.07255023258188</v>
       </c>
       <c r="D28">
-        <v>1.670592560343986</v>
+        <v>1.84542901965734</v>
       </c>
       <c r="E28">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F28">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G28">
-        <v>-0.005028927443465748</v>
+        <v>-0.007347338991008501</v>
       </c>
       <c r="H28">
-        <v>0.01037454027375207</v>
+        <v>0.0139701598080755</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>48.7561474031772</v>
+        <v>48.60083978616683</v>
       </c>
       <c r="D29">
-        <v>1.673996914655909</v>
+        <v>1.864423645211956</v>
       </c>
       <c r="E29">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F29">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G29">
-        <v>-0.008521696614848695</v>
+        <v>-0.01124925241111114</v>
       </c>
       <c r="H29">
-        <v>0.01039568164104506</v>
+        <v>0.01411395182156719</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>48.1490237214457</v>
+        <v>48.16818926891718</v>
       </c>
       <c r="D30">
-        <v>1.679845834549687</v>
+        <v>1.87735657106316</v>
       </c>
       <c r="E30">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F30">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G30">
-        <v>-0.009206447556054131</v>
+        <v>-0.01263099813979975</v>
       </c>
       <c r="H30">
-        <v>0.0104320039954218</v>
+        <v>0.01421185590728535</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>47.90579787617255</v>
+        <v>47.55167032906349</v>
       </c>
       <c r="D31">
-        <v>1.69694736879637</v>
+        <v>1.881647960482168</v>
       </c>
       <c r="E31">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F31">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G31">
-        <v>-0.009229881457851263</v>
+        <v>-0.01319088368325945</v>
       </c>
       <c r="H31">
-        <v>0.01053820616583529</v>
+        <v>0.01424434233474674</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>47.24514476407732</v>
+        <v>47.22410881812292</v>
       </c>
       <c r="D32">
-        <v>1.708325449418353</v>
+        <v>1.932208795186263</v>
       </c>
       <c r="E32">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F32">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G32">
-        <v>-0.01237204525959617</v>
+        <v>-0.0115527588403685</v>
       </c>
       <c r="H32">
-        <v>0.01060886513945508</v>
+        <v>0.01462709503524185</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>46.68241058903243</v>
+        <v>46.81337149715438</v>
       </c>
       <c r="D33">
-        <v>1.722579873336765</v>
+        <v>1.929746067271114</v>
       </c>
       <c r="E33">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F33">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G33">
-        <v>-0.01296085508840483</v>
+        <v>-0.01117167680632782</v>
       </c>
       <c r="H33">
-        <v>0.01069738648124188</v>
+        <v>0.01460845183511225</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>45.90341635128583</v>
+        <v>46.38593887849517</v>
       </c>
       <c r="D34">
-        <v>1.731545165117889</v>
+        <v>1.948199632720638</v>
       </c>
       <c r="E34">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F34">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G34">
-        <v>-0.01403504606349921</v>
+        <v>-0.01113906494013759</v>
       </c>
       <c r="H34">
-        <v>0.01075306180439192</v>
+        <v>0.0147481479467549</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>45.3054854351583</v>
+        <v>45.54205288991736</v>
       </c>
       <c r="D35">
-        <v>1.73122755048815</v>
+        <v>1.923215980993563</v>
       </c>
       <c r="E35">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F35">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G35">
-        <v>-0.01625195275633904</v>
+        <v>-0.01256010899466333</v>
       </c>
       <c r="H35">
-        <v>0.01075108938703177</v>
+        <v>0.0145590181544417</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>44.93194868740682</v>
+        <v>45.04818313945206</v>
       </c>
       <c r="D36">
-        <v>1.734992675311537</v>
+        <v>1.924998032035656</v>
       </c>
       <c r="E36">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F36">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G36">
-        <v>-0.01445747547919058</v>
+        <v>-0.0135995354916929</v>
       </c>
       <c r="H36">
-        <v>0.0107744711738559</v>
+        <v>0.01457250853395725</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>44.81906428584102</v>
+        <v>44.70694966812967</v>
       </c>
       <c r="D37">
-        <v>1.742081185478982</v>
+        <v>1.936931151905181</v>
       </c>
       <c r="E37">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F37">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G37">
-        <v>-0.01164591439494629</v>
+        <v>-0.01316513643140444</v>
       </c>
       <c r="H37">
-        <v>0.01081849150290484</v>
+        <v>0.0146628439463792</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>44.3394063624523</v>
+        <v>43.59097353599589</v>
       </c>
       <c r="D38">
-        <v>1.77220616509397</v>
+        <v>1.945313320685819</v>
       </c>
       <c r="E38">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F38">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G38">
-        <v>-0.009775062430209536</v>
+        <v>-0.01746853339062047</v>
       </c>
       <c r="H38">
-        <v>0.01100557052006346</v>
+        <v>0.01472629815467247</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>43.67201517600651</v>
+        <v>43.41042290220366</v>
       </c>
       <c r="D39">
-        <v>1.796728583755011</v>
+        <v>1.954575391105762</v>
       </c>
       <c r="E39">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F39">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G39">
-        <v>-0.0102091891196987</v>
+        <v>-0.01332268742321059</v>
       </c>
       <c r="H39">
-        <v>0.01115785709552648</v>
+        <v>0.01479641334335866</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>43.56141129774953</v>
+        <v>43.37938003250877</v>
       </c>
       <c r="D40">
-        <v>1.818687942900184</v>
+        <v>1.971150025684585</v>
       </c>
       <c r="E40">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F40">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G40">
-        <v>-0.008565858685358085</v>
+        <v>-0.01043001941839554</v>
       </c>
       <c r="H40">
-        <v>0.01129422682519322</v>
+        <v>0.01492188568142215</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>43.463205603917</v>
+        <v>43.34087634330677</v>
       </c>
       <c r="D41">
-        <v>1.846331590450925</v>
+        <v>2.008994944626919</v>
       </c>
       <c r="E41">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F41">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G41">
-        <v>-0.008474116762025164</v>
+        <v>-0.008537958280143121</v>
       </c>
       <c r="H41">
-        <v>0.01146589653188072</v>
+        <v>0.01520837709340083</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>43.84615813393368</v>
+        <v>43.72494305884533</v>
       </c>
       <c r="D42">
-        <v>1.887161485663627</v>
+        <v>2.048874116272365</v>
       </c>
       <c r="E42">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F42">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G42">
-        <v>-0.003082801428241399</v>
+        <v>0.0008373095178089596</v>
       </c>
       <c r="H42">
-        <v>0.01171945410319544</v>
+        <v>0.01551026808729232</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>44.15196857644722</v>
+        <v>44.27284358695589</v>
       </c>
       <c r="D43">
-        <v>1.922471609736525</v>
+        <v>2.091977093024692</v>
       </c>
       <c r="E43">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F43">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G43">
-        <v>0.002999708752754415</v>
+        <v>0.005390129279701394</v>
       </c>
       <c r="H43">
-        <v>0.01193873336551301</v>
+        <v>0.01583656374376009</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>43.84653454641218</v>
+        <v>44.53376010133331</v>
       </c>
       <c r="D44">
-        <v>1.936486139141607</v>
+        <v>2.115362344719566</v>
       </c>
       <c r="E44">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F44">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G44">
-        <v>0.001782020304141563</v>
+        <v>0.007214875430153356</v>
       </c>
       <c r="H44">
-        <v>0.01202576493932822</v>
+        <v>0.01601359342078887</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,22 +1541,22 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>44.40241838734217</v>
+        <v>44.6499986020138</v>
       </c>
       <c r="D45">
-        <v>1.978454109115916</v>
+        <v>2.127106301430089</v>
       </c>
       <c r="E45">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F45">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G45">
-        <v>0.005870079896407354</v>
+        <v>0.008182014116918967</v>
       </c>
       <c r="H45">
-        <v>0.01228639006423386</v>
+        <v>0.01610249684122797</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1567,22 +1567,22 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>44.45343376258026</v>
+        <v>44.30662908893249</v>
       </c>
       <c r="D46">
-        <v>1.961068328582442</v>
+        <v>2.125228181918982</v>
       </c>
       <c r="E46">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F46">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G46">
-        <v>0.003795472679041145</v>
+        <v>0.003635537688044766</v>
       </c>
       <c r="H46">
-        <v>0.01217842269707522</v>
+        <v>0.01608827920975619</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1593,22 +1593,22 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>44.1617209467971</v>
+        <v>43.87818201616762</v>
       </c>
       <c r="D47">
-        <v>1.946164782999906</v>
+        <v>2.117742073474135</v>
       </c>
       <c r="E47">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F47">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G47">
-        <v>6.095231468674634E-05</v>
+        <v>-0.002466634817426661</v>
       </c>
       <c r="H47">
-        <v>0.01208587024740079</v>
+        <v>0.01603160830548347</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1619,22 +1619,22 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>44.05219787883846</v>
+        <v>44.1668288314175</v>
       </c>
       <c r="D48">
-        <v>1.93640224680396</v>
+        <v>2.122973070386506</v>
       </c>
       <c r="E48">
-        <v>170.5797356724117</v>
+        <v>121.7501966800483</v>
       </c>
       <c r="F48">
-        <v>254.6077895222565</v>
+        <v>208.8651469439691</v>
       </c>
       <c r="G48">
-        <v>0.001285395827664271</v>
+        <v>-0.002293320436973811</v>
       </c>
       <c r="H48">
-        <v>0.01202524395985289</v>
+        <v>0.01607120769513376</v>
       </c>
     </row>
   </sheetData>

--- a/Empirical Application/Estimates/emp_app_nn_c3_L5_hstar.xlsx
+++ b/Empirical Application/Estimates/emp_app_nn_c3_L5_hstar.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>39.50601222573859</v>
+        <v>39.73503638033046</v>
       </c>
       <c r="D2">
-        <v>2.062900819481285</v>
+        <v>2.065017042952946</v>
       </c>
       <c r="E2">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F2">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="H2">
-        <v>0.0182835407046539</v>
+        <v>0.01781936109966277</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>41.91271644623571</v>
+        <v>42.29619675655488</v>
       </c>
       <c r="D3">
-        <v>1.526633294006876</v>
+        <v>1.544445927270915</v>
       </c>
       <c r="E3">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F3">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="H3">
-        <v>0.01353058843569275</v>
+        <v>0.01332726999559734</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>43.59835696198838</v>
+        <v>43.49784534313342</v>
       </c>
       <c r="D4">
-        <v>1.438952266292482</v>
+        <v>1.433407280290293</v>
       </c>
       <c r="E4">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F4">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="H4">
-        <v>0.012753469330352</v>
+        <v>0.01236909981810754</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>44.79026493950023</v>
+        <v>44.51358536728614</v>
       </c>
       <c r="D5">
-        <v>1.389421200141389</v>
+        <v>1.372939476426714</v>
       </c>
       <c r="E5">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F5">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="H5">
-        <v>0.01231447427272914</v>
+        <v>0.01184731350373994</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>45.62291021626136</v>
+        <v>45.32318848172864</v>
       </c>
       <c r="D6">
-        <v>1.359881388215925</v>
+        <v>1.349315546220013</v>
       </c>
       <c r="E6">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F6">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G6">
-        <v>0.04764355757376064</v>
+        <v>0.0466661363063313</v>
       </c>
       <c r="H6">
-        <v>0.01205266219303699</v>
+        <v>0.01164345884579268</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>46.32485963248939</v>
+        <v>45.86794584296979</v>
       </c>
       <c r="D7">
-        <v>1.374730555220681</v>
+        <v>1.341769109842657</v>
       </c>
       <c r="E7">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F7">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G7">
-        <v>0.03290136955985412</v>
+        <v>0.03223904557560808</v>
       </c>
       <c r="H7">
-        <v>0.01218427072544813</v>
+        <v>0.01157833944385717</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>46.82624978328648</v>
+        <v>46.41744910046811</v>
       </c>
       <c r="D8">
-        <v>1.383750542924639</v>
+        <v>1.354461349642778</v>
       </c>
       <c r="E8">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F8">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G8">
-        <v>0.02167121643981757</v>
+        <v>0.02402924073621637</v>
       </c>
       <c r="H8">
-        <v>0.01226421509833478</v>
+        <v>0.01168786280345058</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>47.00439125894889</v>
+        <v>46.92716839271231</v>
       </c>
       <c r="D9">
-        <v>1.391616550526609</v>
+        <v>1.354428788957767</v>
       </c>
       <c r="E9">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F9">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G9">
-        <v>0.012786658562811</v>
+        <v>0.01685243553992723</v>
       </c>
       <c r="H9">
-        <v>0.01233393171719283</v>
+        <v>0.01168758183211147</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>47.12898143754029</v>
+        <v>47.20161818934347</v>
       </c>
       <c r="D10">
-        <v>1.384958469923515</v>
+        <v>1.355108263795748</v>
       </c>
       <c r="E10">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F10">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G10">
-        <v>0.008919276624926109</v>
+        <v>0.01036283979996129</v>
       </c>
       <c r="H10">
-        <v>0.01227492098503744</v>
+        <v>0.01169344512875467</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>47.17693557581237</v>
+        <v>47.45444404865217</v>
       </c>
       <c r="D11">
-        <v>1.370350980873899</v>
+        <v>1.34407844548127</v>
       </c>
       <c r="E11">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F11">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G11">
-        <v>0.003795476304772061</v>
+        <v>0.00336330567500287</v>
       </c>
       <c r="H11">
-        <v>0.01214545445028731</v>
+        <v>0.01159826706904806</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>47.06575159235919</v>
+        <v>47.34252386092804</v>
       </c>
       <c r="D12">
-        <v>1.364343854819098</v>
+        <v>1.340802139568224</v>
       </c>
       <c r="E12">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F12">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G12">
-        <v>-0.0003811786664711825</v>
+        <v>-0.005594945174385968</v>
       </c>
       <c r="H12">
-        <v>0.01209221314430511</v>
+        <v>0.01156999530328382</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>46.83613030954999</v>
+        <v>47.2099750536745</v>
       </c>
       <c r="D13">
-        <v>1.366801716755144</v>
+        <v>1.347101620036848</v>
       </c>
       <c r="E13">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F13">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G13">
-        <v>-0.002612452286494937</v>
+        <v>-0.009575289211788584</v>
       </c>
       <c r="H13">
-        <v>0.01211399723510082</v>
+        <v>0.01162435452399522</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>47.04999447624954</v>
+        <v>46.98124284972245</v>
       </c>
       <c r="D14">
-        <v>1.393700867694101</v>
+        <v>1.378019539419058</v>
       </c>
       <c r="E14">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F14">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G14">
-        <v>-0.002217416673406802</v>
+        <v>-0.009521217848988295</v>
       </c>
       <c r="H14">
-        <v>0.01235240507151668</v>
+        <v>0.01189115017674878</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>46.93213584125292</v>
+        <v>46.40607475097025</v>
       </c>
       <c r="D15">
-        <v>1.416840927119868</v>
+        <v>1.393744788346965</v>
       </c>
       <c r="E15">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F15">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G15">
-        <v>-0.001811188454023593</v>
+        <v>-0.01145153356134312</v>
       </c>
       <c r="H15">
-        <v>0.01255749598738801</v>
+        <v>0.01202684585537997</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>46.76526119665109</v>
+        <v>45.52225787256636</v>
       </c>
       <c r="D16">
-        <v>1.446816099710613</v>
+        <v>1.421556858342938</v>
       </c>
       <c r="E16">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F16">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G16">
-        <v>-0.0007465513788131872</v>
+        <v>-0.009336675485609769</v>
       </c>
       <c r="H16">
-        <v>0.0128231666793652</v>
+        <v>0.01226684063889935</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>46.5863988931097</v>
+        <v>45.39512211882614</v>
       </c>
       <c r="D17">
-        <v>1.479403140647446</v>
+        <v>1.465396670201831</v>
       </c>
       <c r="E17">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F17">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G17">
-        <v>0.0009518959732524035</v>
+        <v>-0.004501813314548064</v>
       </c>
       <c r="H17">
-        <v>0.01311198642473843</v>
+        <v>0.01264514136078482</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>46.7741947697952</v>
+        <v>45.67822333350534</v>
       </c>
       <c r="D18">
-        <v>1.492387530028666</v>
+        <v>1.478948173683686</v>
       </c>
       <c r="E18">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F18">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G18">
-        <v>0.002510766141948384</v>
+        <v>0.001141012700952526</v>
       </c>
       <c r="H18">
-        <v>0.01322706738720385</v>
+        <v>0.01276207944360142</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>46.8871454231686</v>
+        <v>45.62219867883727</v>
       </c>
       <c r="D19">
-        <v>1.517834089148464</v>
+        <v>1.4997376747363</v>
       </c>
       <c r="E19">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F19">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G19">
-        <v>0.005876303665586802</v>
+        <v>0.00944265254864809</v>
       </c>
       <c r="H19">
-        <v>0.01345260086659681</v>
+        <v>0.01294147536074533</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>46.94630337174908</v>
+        <v>45.84865578323048</v>
       </c>
       <c r="D20">
-        <v>1.518068849827606</v>
+        <v>1.48465361765121</v>
       </c>
       <c r="E20">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F20">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G20">
-        <v>0.00498204756992715</v>
+        <v>0.01700270983078158</v>
       </c>
       <c r="H20">
-        <v>0.0134546815562705</v>
+        <v>0.01281131262869214</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>46.98843366527038</v>
+        <v>46.48968492334681</v>
       </c>
       <c r="D21">
-        <v>1.527546738352643</v>
+        <v>1.509519430056483</v>
       </c>
       <c r="E21">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F21">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G21">
-        <v>0.008332207059053775</v>
+        <v>0.02082024588364977</v>
       </c>
       <c r="H21">
-        <v>0.01353868431539746</v>
+        <v>0.01302588368601011</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>47.45171705896128</v>
+        <v>47.16380488187485</v>
       </c>
       <c r="D22">
-        <v>1.577971940848024</v>
+        <v>1.549449786682303</v>
       </c>
       <c r="E22">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F22">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G22">
-        <v>0.01032463869902185</v>
+        <v>0.02267892565038188</v>
       </c>
       <c r="H22">
-        <v>0.01398560412543299</v>
+        <v>0.01337044909576397</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>47.87234442774681</v>
+        <v>47.91689915875394</v>
       </c>
       <c r="D23">
-        <v>1.62729807557189</v>
+        <v>1.587260024476606</v>
       </c>
       <c r="E23">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F23">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G23">
-        <v>0.00937118388704632</v>
+        <v>0.02226253324305914</v>
       </c>
       <c r="H23">
-        <v>0.01442278287077559</v>
+        <v>0.01369671966230484</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>47.56238880783943</v>
+        <v>48.24269144549141</v>
       </c>
       <c r="D24">
-        <v>1.620584324378195</v>
+        <v>1.601671893365627</v>
       </c>
       <c r="E24">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F24">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G24">
-        <v>0.006659427030015408</v>
+        <v>0.01518249610055129</v>
       </c>
       <c r="H24">
-        <v>0.01436327872880636</v>
+        <v>0.01382108197530891</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>47.91955202255831</v>
+        <v>48.7263614602101</v>
       </c>
       <c r="D25">
-        <v>1.643560944761662</v>
+        <v>1.645094275067735</v>
       </c>
       <c r="E25">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F25">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G25">
-        <v>0.005314073281948817</v>
+        <v>0.008769010253752185</v>
       </c>
       <c r="H25">
-        <v>0.01456692108042564</v>
+        <v>0.01419578062585893</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>48.4261369616387</v>
+        <v>49.30685143756644</v>
       </c>
       <c r="D26">
-        <v>1.664439288034304</v>
+        <v>1.651453957015188</v>
       </c>
       <c r="E26">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F26">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G26">
-        <v>0.001087174505826072</v>
+        <v>0.0001436096913242313</v>
       </c>
       <c r="H26">
-        <v>0.01475196635039992</v>
+        <v>0.01425065933472354</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>48.38653484509601</v>
+        <v>49.18420399772673</v>
       </c>
       <c r="D27">
-        <v>1.649159426507901</v>
+        <v>1.611750102632811</v>
       </c>
       <c r="E27">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F27">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G27">
-        <v>-0.006914952064551017</v>
+        <v>-0.01089266619474247</v>
       </c>
       <c r="H27">
-        <v>0.01461654056184955</v>
+        <v>0.01390804844891879</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>48.01181169655155</v>
+        <v>48.27785515931868</v>
       </c>
       <c r="D28">
-        <v>1.609044928183156</v>
+        <v>1.624137063859352</v>
       </c>
       <c r="E28">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F28">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G28">
-        <v>-0.008553053279169377</v>
+        <v>-0.01824398233488505</v>
       </c>
       <c r="H28">
-        <v>0.01426100477649286</v>
+        <v>0.01401493751105826</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>47.83868539038219</v>
+        <v>47.89272656394716</v>
       </c>
       <c r="D29">
-        <v>1.620218468908763</v>
+        <v>1.601450606997815</v>
       </c>
       <c r="E29">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F29">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G29">
-        <v>-0.01805308371982375</v>
+        <v>-0.02379445482092706</v>
       </c>
       <c r="H29">
-        <v>0.01436003614278177</v>
+        <v>0.0138191724599817</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>47.62566497989345</v>
+        <v>47.18678243248673</v>
       </c>
       <c r="D30">
-        <v>1.630800815149784</v>
+        <v>1.655517317532426</v>
       </c>
       <c r="E30">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F30">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G30">
-        <v>-0.02480374265065146</v>
+        <v>-0.03064343096149278</v>
       </c>
       <c r="H30">
-        <v>0.01445382773781206</v>
+        <v>0.01428572272007518</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>46.76595209741865</v>
+        <v>46.17407256759515</v>
       </c>
       <c r="D31">
-        <v>1.661846775074511</v>
+        <v>1.669023502151588</v>
       </c>
       <c r="E31">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F31">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G31">
-        <v>-0.02578874481287739</v>
+        <v>-0.03164895005021973</v>
       </c>
       <c r="H31">
-        <v>0.01472898884426871</v>
+        <v>0.01440226973920458</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>46.19390028317233</v>
+        <v>45.3236542719098</v>
       </c>
       <c r="D32">
-        <v>1.697028562532065</v>
+        <v>1.692092668663084</v>
       </c>
       <c r="E32">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F32">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G32">
-        <v>-0.03120449679460337</v>
+        <v>-0.0292803198441991</v>
       </c>
       <c r="H32">
-        <v>0.0150408058918786</v>
+        <v>0.01460133725283089</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>45.03105862738651</v>
+        <v>44.91924868886177</v>
       </c>
       <c r="D33">
-        <v>1.728005834927074</v>
+        <v>1.749839642848444</v>
       </c>
       <c r="E33">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F33">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G33">
-        <v>-0.03279226646330535</v>
+        <v>-0.03266829720762558</v>
       </c>
       <c r="H33">
-        <v>0.01531535821906983</v>
+        <v>0.01509964509437313</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>44.45753813753446</v>
+        <v>44.4039024837276</v>
       </c>
       <c r="D34">
-        <v>1.7422907991062</v>
+        <v>1.736824325567522</v>
       </c>
       <c r="E34">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F34">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G34">
-        <v>-0.03455307737818267</v>
+        <v>-0.028754085748976</v>
       </c>
       <c r="H34">
-        <v>0.0154419662079596</v>
+        <v>0.01498733384771931</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>44.26033567503563</v>
+        <v>44.12037198969158</v>
       </c>
       <c r="D35">
-        <v>1.817908699663041</v>
+        <v>1.752057678127878</v>
       </c>
       <c r="E35">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F35">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G35">
-        <v>-0.02884163847950773</v>
+        <v>-0.01959707516778506</v>
       </c>
       <c r="H35">
-        <v>0.01611216952058377</v>
+        <v>0.01511878487421704</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>43.01909220941501</v>
+        <v>43.59300398424683</v>
       </c>
       <c r="D36">
-        <v>1.894673294860456</v>
+        <v>1.724327178729423</v>
       </c>
       <c r="E36">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F36">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G36">
-        <v>-0.02408714766741884</v>
+        <v>-0.01531492450729903</v>
       </c>
       <c r="H36">
-        <v>0.01679253601601283</v>
+        <v>0.01487949397638094</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>42.59192275625333</v>
+        <v>42.66579901072706</v>
       </c>
       <c r="D37">
-        <v>1.795936410815543</v>
+        <v>1.692656933856197</v>
       </c>
       <c r="E37">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F37">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G37">
-        <v>-0.01384701722711994</v>
+        <v>-0.013571387509753</v>
       </c>
       <c r="H37">
-        <v>0.01591742858407154</v>
+        <v>0.01460620638709124</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>42.09717259938422</v>
+        <v>42.58612871265057</v>
       </c>
       <c r="D38">
-        <v>1.737624481514718</v>
+        <v>1.6891312263429</v>
       </c>
       <c r="E38">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F38">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G38">
-        <v>-0.008166437623292565</v>
+        <v>-0.007762491995891008</v>
       </c>
       <c r="H38">
-        <v>0.01540060852036793</v>
+        <v>0.01457578249517924</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>42.15128994069741</v>
+        <v>43.03854054074954</v>
       </c>
       <c r="D39">
-        <v>1.744846870447682</v>
+        <v>1.687703439217974</v>
       </c>
       <c r="E39">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F39">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G39">
-        <v>-0.005009704111549463</v>
+        <v>-0.002334297356464177</v>
       </c>
       <c r="H39">
-        <v>0.01546462073113136</v>
+        <v>0.01456346189257728</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>42.33995665638532</v>
+        <v>42.87326635074196</v>
       </c>
       <c r="D40">
-        <v>1.774756642773958</v>
+        <v>1.732792662509629</v>
       </c>
       <c r="E40">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F40">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G40">
-        <v>0.008231577492346442</v>
+        <v>0.0009809350472148814</v>
       </c>
       <c r="H40">
-        <v>0.0157297117789559</v>
+        <v>0.01495254398479497</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>42.81553587104732</v>
+        <v>42.74782668730129</v>
       </c>
       <c r="D41">
-        <v>1.845898193841348</v>
+        <v>1.761846518154204</v>
       </c>
       <c r="E41">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F41">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G41">
-        <v>0.01098770099578244</v>
+        <v>0.008034211891733988</v>
       </c>
       <c r="H41">
-        <v>0.01636024109594939</v>
+        <v>0.01520325433453999</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>43.15090811780765</v>
+        <v>43.16190376438504</v>
       </c>
       <c r="D42">
-        <v>1.846441595913817</v>
+        <v>1.835532015143261</v>
       </c>
       <c r="E42">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F42">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G42">
-        <v>0.01279863120698623</v>
+        <v>0.009156742826232245</v>
       </c>
       <c r="H42">
-        <v>0.01636505728188385</v>
+        <v>0.01583909822897028</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>43.45878301718771</v>
+        <v>43.74688441265731</v>
       </c>
       <c r="D43">
-        <v>1.883347114904208</v>
+        <v>1.859606053488673</v>
       </c>
       <c r="E43">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F43">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G43">
-        <v>0.007233930808086209</v>
+        <v>0.00175876527083485</v>
       </c>
       <c r="H43">
-        <v>0.01669215180446825</v>
+        <v>0.01604683694176588</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>44.33614460819044</v>
+        <v>43.74995359180121</v>
       </c>
       <c r="D44">
-        <v>1.891830021298945</v>
+        <v>1.848169333764192</v>
       </c>
       <c r="E44">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F44">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="G44">
-        <v>0.006576410497354468</v>
+        <v>0.006085997144430788</v>
       </c>
       <c r="H44">
-        <v>0.01676733601250058</v>
+        <v>0.01594814766495742</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,19 +1541,19 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>44.34995491557852</v>
+        <v>43.9512729134045</v>
       </c>
       <c r="D45">
-        <v>1.895617720016048</v>
+        <v>1.890631874088512</v>
       </c>
       <c r="E45">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F45">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="H45">
-        <v>0.01680090647939706</v>
+        <v>0.01631456369131914</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1564,19 +1564,19 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>44.14495359250202</v>
+        <v>44.05120756484773</v>
       </c>
       <c r="D46">
-        <v>1.900813082691929</v>
+        <v>1.869363824037508</v>
       </c>
       <c r="E46">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F46">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="H46">
-        <v>0.01684695310658478</v>
+        <v>0.01613103829861701</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1587,19 +1587,19 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>43.3087188699912</v>
+        <v>43.31994298408311</v>
       </c>
       <c r="D47">
-        <v>1.913584800380306</v>
+        <v>1.910111914458589</v>
       </c>
       <c r="E47">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F47">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="H47">
-        <v>0.01696014915460541</v>
+        <v>0.01648266006358638</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1610,19 +1610,19 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>43.39218233596203</v>
+        <v>43.84702589385088</v>
       </c>
       <c r="D48">
-        <v>1.888813753170254</v>
+        <v>1.839207014260925</v>
       </c>
       <c r="E48">
-        <v>116.1084359582419</v>
+        <v>119.1123334856107</v>
       </c>
       <c r="F48">
-        <v>178.3972065905218</v>
+        <v>183.2320818427281</v>
       </c>
       <c r="H48">
-        <v>0.01674060275388423</v>
+        <v>0.01587081038192421</v>
       </c>
     </row>
   </sheetData>
